--- a/Data/aearep-267/candidatepackages.xlsx
+++ b/Data/aearep-267/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,18 +22,12 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -49,37 +43,37 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>outtable</t>
+  </si>
+  <si>
+    <t>mean2</t>
   </si>
   <si>
     <t>randtreat</t>
   </si>
   <si>
-    <t>outtable</t>
-  </si>
-  <si>
-    <t>mean2</t>
+    <t>title</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
   <si>
     <t>pv</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>rev</t>
   </si>
   <si>
-    <t>white</t>
+    <t>median</t>
   </si>
   <si>
     <t>imbalance</t>
@@ -88,9 +82,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
@@ -103,24 +94,18 @@
     <t>effects</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>usd</t>
+  </si>
+  <si>
+    <t>try</t>
   </si>
   <si>
     <t>moments</t>
   </si>
   <si>
-    <t>tr</t>
-  </si>
-  <si>
-    <t>usd</t>
-  </si>
-  <si>
     <t>dash</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-267</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-267/115162</t>
   </si>
   <si>
@@ -151,16 +133,7 @@
     <t>filename</t>
   </si>
   <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>Master.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>Analysis-1.do</t>
@@ -228,7 +201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -236,13 +209,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -262,7 +235,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -274,7 +247,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -286,7 +259,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -298,7 +271,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -310,7 +283,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -322,7 +295,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -334,7 +307,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -346,7 +319,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -358,7 +331,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -370,7 +343,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -382,10 +355,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>294</v>
+        <v>499</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D13"/>
     </row>
@@ -394,10 +367,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>297</v>
+        <v>539</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D14"/>
     </row>
@@ -406,10 +379,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>316</v>
+        <v>563</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D15"/>
     </row>
@@ -418,10 +391,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="C16">
-        <v>0.1840185672044754</v>
+        <v>0.20297521352767944</v>
       </c>
       <c r="D16"/>
     </row>
@@ -430,10 +403,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="C17">
-        <v>0.18733422458171844</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D17"/>
     </row>
@@ -442,10 +415,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C18">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D18"/>
     </row>
@@ -454,10 +427,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>594</v>
+        <v>746</v>
       </c>
       <c r="C19">
-        <v>0.19694960117340088</v>
+        <v>0.24661156535148621</v>
       </c>
       <c r="D19"/>
     </row>
@@ -466,10 +439,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>606</v>
+        <v>955</v>
       </c>
       <c r="C20">
-        <v>0.20092837512493134</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D20"/>
     </row>
@@ -478,10 +451,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>698</v>
+        <v>988</v>
       </c>
       <c r="C21">
-        <v>0.23143236339092255</v>
+        <v>0.32661157846450806</v>
       </c>
       <c r="D21"/>
     </row>
@@ -490,10 +463,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>745</v>
+        <v>998</v>
       </c>
       <c r="C22">
-        <v>0.24701590836048126</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D22"/>
     </row>
@@ -502,10 +475,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>835</v>
+        <v>1125</v>
       </c>
       <c r="C23">
-        <v>0.27685675024986267</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D23"/>
     </row>
@@ -514,10 +487,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C24">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D24"/>
     </row>
@@ -526,10 +499,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1133</v>
+        <v>1428</v>
       </c>
       <c r="C25">
-        <v>0.37566313147544861</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D25"/>
     </row>
@@ -538,10 +511,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1194</v>
+        <v>1497</v>
       </c>
       <c r="C26">
-        <v>0.39588859677314758</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D26"/>
     </row>
@@ -550,10 +523,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1472</v>
+        <v>1975</v>
       </c>
       <c r="C27">
-        <v>0.48806366324424744</v>
+        <v>0.6528925895690918</v>
       </c>
       <c r="D27"/>
     </row>
@@ -562,10 +535,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1553</v>
+        <v>2008</v>
       </c>
       <c r="C28">
-        <v>0.51492041349411011</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D28"/>
     </row>
@@ -574,10 +547,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1660</v>
+        <v>2057</v>
       </c>
       <c r="C29">
-        <v>0.55039787292480469</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D29"/>
     </row>
@@ -586,10 +559,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1798</v>
+        <v>2102</v>
       </c>
       <c r="C30">
-        <v>0.5961538553237915</v>
+        <v>0.69487601518630981</v>
       </c>
       <c r="D30"/>
     </row>
@@ -598,10 +571,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1817</v>
+        <v>2436</v>
       </c>
       <c r="C31">
-        <v>0.60245358943939209</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D31"/>
     </row>
@@ -610,72 +583,12 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1859</v>
+        <v>2864</v>
       </c>
       <c r="C32">
-        <v>0.61637932062149048</v>
+        <v>0.9467768669128418</v>
       </c>
       <c r="D32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1905</v>
-      </c>
-      <c r="C33">
-        <v>0.63163131475448608</v>
-      </c>
-      <c r="D33"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>1951</v>
-      </c>
-      <c r="C34">
-        <v>0.64688330888748169</v>
-      </c>
-      <c r="D34"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2217</v>
-      </c>
-      <c r="C35">
-        <v>0.73507958650588989</v>
-      </c>
-      <c r="D35"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2424</v>
-      </c>
-      <c r="C36">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2777</v>
-      </c>
-      <c r="C37">
-        <v>0.92075598239898682</v>
-      </c>
-      <c r="D37"/>
     </row>
   </sheetData>
 </worksheet>
@@ -683,111 +596,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
